--- a/User Story Details.xlsx
+++ b/User Story Details.xlsx
@@ -1,14 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="status" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>Task Name</t>
   </si>
@@ -30,9 +35,6 @@
     <t>Release Version</t>
   </si>
   <si>
-    <t>Number Of Days</t>
-  </si>
-  <si>
     <t>Skeleton (Structure)</t>
   </si>
   <si>
@@ -69,9 +71,6 @@
     <t>Create ERPsystem login page for wep portal.</t>
   </si>
   <si>
-    <t>Create ERPsystem login page for mobile app .</t>
-  </si>
-  <si>
     <t>To store the documents in the Github.</t>
   </si>
   <si>
@@ -85,23 +84,37 @@
   </si>
   <si>
     <t>To upload the mobile app in play store .</t>
+  </si>
+  <si>
+    <t>MVP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data model creation </t>
+  </si>
+  <si>
+    <t>This needs to be either postgresql or mongo db</t>
+  </si>
+  <si>
+    <t>Create ERP system login page for mobile app .</t>
+  </si>
+  <si>
+    <t>Number of Days</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>To Do</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -121,15 +134,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -137,26 +156,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -203,7 +246,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,9 +278,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,6 +313,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -444,137 +489,261 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
-    <col min="2" max="2" width="51.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="51.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5">
+        <v>43789</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5">
+        <v>43789</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5">
+        <v>43789</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5">
+        <v>43789</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5">
+        <v>43789</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5">
+        <v>43789</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5">
+        <v>43789</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5">
+        <v>43789</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5">
+        <v>43789</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5">
+        <v>43789</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+      <formula1>"To Do, Ready for Development,In Progress,Development Completed, Ready for Testing, Testing Completed,Done,Cancel"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>"MVP1,MVP2,MVP3,MVP4,MVP5"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/User Story Details.xlsx
+++ b/User Story Details.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>Task Name</t>
   </si>
@@ -65,12 +65,6 @@
     <t>Create IOS version of ERPsystem login page.</t>
   </si>
   <si>
-    <t>Create ERPsystem login page for mobile view.</t>
-  </si>
-  <si>
-    <t>Create ERPsystem login page for wep portal.</t>
-  </si>
-  <si>
     <t>To store the documents in the Github.</t>
   </si>
   <si>
@@ -105,6 +99,21 @@
   </si>
   <si>
     <t>To Do</t>
+  </si>
+  <si>
+    <t>Create ERP system login page for wep portal.</t>
+  </si>
+  <si>
+    <t>Create ERP system login page for mobile view.</t>
+  </si>
+  <si>
+    <t>Developer Name</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Start Date</t>
   </si>
 </sst>
 </file>
@@ -148,7 +157,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -171,11 +180,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -186,6 +206,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,23 +511,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44" customWidth="1"/>
+    <col min="1" max="1" width="39.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.26953125" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" customWidth="1"/>
+    <col min="3" max="4" width="13.1796875" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" customWidth="1"/>
+    <col min="8" max="8" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,18 +540,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
@@ -536,123 +568,146 @@
       <c r="C2" s="5">
         <v>43789</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D2" s="5"/>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="5">
         <v>43789</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D3" s="5"/>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5">
         <v>43789</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D4" s="5"/>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="5">
         <v>43789</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D5" s="5"/>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5">
         <v>43789</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D6" s="5"/>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5">
         <v>43789</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D7" s="5"/>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5">
         <v>43789</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D8" s="5"/>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -662,15 +717,18 @@
       <c r="C9" s="5">
         <v>43789</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D9" s="5"/>
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -680,42 +738,51 @@
       <c r="C10" s="5">
         <v>43789</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="C11" s="5">
         <v>43789</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
       <formula1>"To Do, Ready for Development,In Progress,Development Completed, Ready for Testing, Testing Completed,Done,Cancel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"MVP1,MVP2,MVP3,MVP4,MVP5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+      <formula1>"Alex,Josini,Nisholine"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/User Story Details.xlsx
+++ b/User Story Details.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>Task Name</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Start Date</t>
+  </si>
+  <si>
+    <t>Task No</t>
   </si>
 </sst>
 </file>
@@ -511,277 +514,311 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.26953125" customWidth="1"/>
-    <col min="3" max="4" width="13.1796875" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" customWidth="1"/>
-    <col min="8" max="8" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.26953125" customWidth="1"/>
+    <col min="4" max="5" width="13.1796875" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5">
-        <v>43789</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="D2" s="5">
+        <v>43789</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="4">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5">
-        <v>43789</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="4"/>
+      <c r="D3" s="5">
+        <v>43789</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5">
-        <v>43789</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="4"/>
+      <c r="D4" s="5">
+        <v>43789</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="5">
-        <v>43789</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="4"/>
+      <c r="D5" s="5">
+        <v>43789</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="5">
-        <v>43789</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="4"/>
+      <c r="D6" s="5">
+        <v>43789</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="5">
-        <v>43789</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="4"/>
+      <c r="D7" s="5">
+        <v>43789</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5">
-        <v>43789</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="4"/>
+      <c r="D8" s="5">
+        <v>43789</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5">
-        <v>43789</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="4"/>
+      <c r="D9" s="5">
+        <v>43789</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="5">
-        <v>43789</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="4"/>
+      <c r="D10" s="5">
+        <v>43789</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5">
-        <v>43789</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="4"/>
+      <c r="D11" s="5">
+        <v>43789</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
       <formula1>"To Do, Ready for Development,In Progress,Development Completed, Ready for Testing, Testing Completed,Done,Cancel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"MVP1,MVP2,MVP3,MVP4,MVP5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
       <formula1>"Alex,Josini,Nisholine"</formula1>
     </dataValidation>
   </dataValidations>

--- a/User Story Details.xlsx
+++ b/User Story Details.xlsx
@@ -1,14 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="status" sheetId="2" r:id="rId2"/>
+    <sheet name="screenshot" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="51">
   <si>
     <t>Task Name</t>
   </si>
@@ -60,12 +65,6 @@
     <t>Create IOS version of ERPsystem login page.</t>
   </si>
   <si>
-    <t>Create ERPsystem login page for mobile view.</t>
-  </si>
-  <si>
-    <t>Create ERPsystem login page for wep portal.</t>
-  </si>
-  <si>
     <t>To store the documents in the Github.</t>
   </si>
   <si>
@@ -102,20 +101,86 @@
     <t>To Do</t>
   </si>
   <si>
-    <t>Ready for Development</t>
+    <t>Create ERP system login page for wep portal.</t>
+  </si>
+  <si>
+    <t>Create ERP system login page for mobile view.</t>
+  </si>
+  <si>
+    <t>Developer Name</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Task No</t>
+  </si>
+  <si>
+    <t>Home page UX design - screen 1</t>
+  </si>
+  <si>
+    <t>Home page UX design - screen 2</t>
+  </si>
+  <si>
+    <t>Home page UX design - screen 3</t>
+  </si>
+  <si>
+    <t>Refer the screenshot tab</t>
+  </si>
+  <si>
+    <t>Home page UX design - screen 4</t>
+  </si>
+  <si>
+    <t>Home page UX design - screen 5</t>
+  </si>
+  <si>
+    <t>Home page UX design - screen 6</t>
+  </si>
+  <si>
+    <t>Home page UX design - screen 7</t>
+  </si>
+  <si>
+    <t>Mobile View in Web Online</t>
+  </si>
+  <si>
+    <t>Mobile App</t>
+  </si>
+  <si>
+    <t>MVP2</t>
+  </si>
+  <si>
+    <t>Nisholine</t>
   </si>
   <si>
     <t>In Progress</t>
   </si>
   <si>
-    <t>Done</t>
+    <t>Development Completed</t>
+  </si>
+  <si>
+    <t>It is only front end , not back end</t>
+  </si>
+  <si>
+    <t>no comments</t>
+  </si>
+  <si>
+    <t>Comments 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">please plan for new task for back end also </t>
+  </si>
+  <si>
+    <t>Comments 3</t>
+  </si>
+  <si>
+    <t>Comments 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +202,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -152,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -175,11 +248,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -190,6 +287,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -205,6 +318,396 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1701800" y="406400"/>
+          <a:ext cx="6756400" cy="425450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1143000" y="292100"/>
+          <a:ext cx="342900" cy="5124450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2012950" y="1225550"/>
+          <a:ext cx="6013450" cy="736600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1352550" y="2489200"/>
+          <a:ext cx="2692400" cy="882650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4279900" y="2400300"/>
+          <a:ext cx="3117850" cy="2374900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1924050" y="3956050"/>
+          <a:ext cx="2647950" cy="1492250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5130800" y="5067300"/>
+          <a:ext cx="2832100" cy="1841500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -250,7 +753,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,9 +785,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -316,6 +820,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -491,233 +996,853 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44" customWidth="1"/>
-    <col min="2" max="2" width="51.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.7265625" customWidth="1"/>
+    <col min="3" max="3" width="60.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.54296875" customWidth="1"/>
+    <col min="10" max="10" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5">
+        <v>43789</v>
+      </c>
+      <c r="E2" s="5">
+        <v>43776</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5">
+        <v>43789</v>
+      </c>
+      <c r="E3" s="5">
+        <v>43776</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5">
+        <v>43789</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5">
+        <v>43789</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="D6" s="5">
+        <v>43789</v>
+      </c>
+      <c r="E6" s="5">
+        <v>43777</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5">
+        <v>43789</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="5">
+        <v>43789</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5">
+        <v>43789</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5">
+        <v>43789</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="C2" s="5">
+      <c r="B11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="8">
         <v>43789</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="5">
+        <v>43799</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="5">
+        <v>43799</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="5">
+        <v>43799</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="5">
+        <v>43799</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="5">
+        <v>43799</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="5">
+        <v>43799</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="5">
+        <v>43799</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="5">
+        <v>43804</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="5">
+        <v>43804</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="5">
+        <v>43804</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="B22" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="5">
+        <v>43804</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5">
+        <v>43804</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="5">
+        <v>43804</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="5">
+        <v>43804</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="5">
+        <v>43814</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="5">
+        <v>43814</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="5">
+        <v>43814</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="5">
+        <v>43814</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="5">
-        <v>43789</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="5">
-        <v>43789</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
+      <c r="B30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="5">
+        <v>43814</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="5">
-        <v>43789</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="5">
-        <v>43789</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="5">
-        <v>43789</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="5">
-        <v>43789</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="5">
-        <v>43789</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5">
-        <v>43789</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="5">
-        <v>43789</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="B31" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="5">
+        <v>43814</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="5">
+        <v>43814</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
       <formula1>"To Do, Ready for Development,In Progress,Development Completed, Ready for Testing, Testing Completed,Done,Cancel"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"MVP1,MVP2,MVP3,MVP4,MVP5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
+      <formula1>"Alex,Josini,Nisholine"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -726,26 +1851,73 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.453125" customWidth="1"/>
+    <col min="6" max="6" width="24.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F5" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C21" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="G27" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/User Story Details.xlsx
+++ b/User Story Details.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19890" windowHeight="7425"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="59">
   <si>
     <t>Task No</t>
   </si>
@@ -176,15 +181,30 @@
   <si>
     <t xml:space="preserve">Put this on Install Project     :                         npm install rxjs@6 rxjs-compat@6 --save.  Next Release we plan skeleton for backEnd.
 </t>
+  </si>
+  <si>
+    <t>ERP home page fixed header</t>
+  </si>
+  <si>
+    <t>ERP HOME PAGE fixed left side menu bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">but when you scroll inside the menu bar if more menu then it should come down </t>
+  </si>
+  <si>
+    <t>erp home page content area</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>high</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mmm/yy"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -281,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -299,9 +319,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -310,6 +330,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -320,6 +343,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -351,7 +377,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -371,7 +397,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -406,7 +432,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -426,7 +452,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -461,7 +487,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -481,7 +507,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -516,7 +542,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -536,7 +562,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -571,7 +597,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -591,7 +617,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -626,7 +652,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -646,7 +672,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -681,7 +707,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -701,7 +727,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1001,30 +1027,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" customWidth="1"/>
-    <col min="3" max="3" width="60.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" customWidth="1"/>
+    <col min="2" max="2" width="44.7265625" customWidth="1"/>
+    <col min="3" max="3" width="60.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" customWidth="1"/>
-    <col min="10" max="10" width="36.42578125" customWidth="1"/>
-    <col min="11" max="11" width="40.7109375" customWidth="1"/>
-    <col min="12" max="12" width="39.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" customWidth="1"/>
+    <col min="9" max="10" width="19.54296875" customWidth="1"/>
+    <col min="11" max="11" width="36.453125" customWidth="1"/>
+    <col min="12" max="12" width="40.7265625" customWidth="1"/>
+    <col min="13" max="13" width="39.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75">
+    <row r="1" spans="1:13" ht="15.5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1053,16 +1079,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.25" customHeight="1">
+    <row r="2" spans="1:13" ht="17.25" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1091,8 +1120,9 @@
         <v>16</v>
       </c>
       <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" ht="44.25" customHeight="1">
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" ht="44.25" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1120,17 +1150,18 @@
       <c r="I3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="8"/>
+      <c r="K3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="L3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="M3" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1158,11 +1189,12 @@
       <c r="I4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1185,8 +1217,9 @@
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1214,216 +1247,209 @@
       <c r="I6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="8"/>
+      <c r="K6" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="9">
-        <v>43789</v>
-      </c>
-      <c r="E7" s="9">
-        <v>43778</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="8">
-        <v>2</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:12">
+        <v>53</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" ht="29">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="9">
-        <v>43789</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="J8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="9">
-        <v>43789</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="J9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D10" s="9">
         <v>43789</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="9">
+        <v>43778</v>
+      </c>
       <c r="F10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="8">
+        <v>2</v>
+      </c>
       <c r="H10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="11">
+      <c r="B11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="9">
         <v>43789</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="8">
+      <c r="G11" s="8"/>
+      <c r="H11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>41</v>
+      <c r="B12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="D12" s="9">
-        <v>43799</v>
-      </c>
-      <c r="E12" s="8"/>
+        <v>43789</v>
+      </c>
+      <c r="E12" s="9"/>
       <c r="F12" s="8" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G12" s="8"/>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="8" t="s">
         <v>27</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="8">
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>41</v>
+      <c r="B13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="D13" s="9">
-        <v>43799</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>43789</v>
+      </c>
+      <c r="E13" s="9"/>
       <c r="F13" s="8" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="8" t="s">
         <v>27</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="12">
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="9">
-        <v>43799</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="12">
+      <c r="B14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="11">
+        <v>43789</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="10" t="s">
         <v>14</v>
       </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>14</v>
+      </c>
       <c r="B15" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="9">
@@ -1439,15 +1465,16 @@
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="12">
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="9">
@@ -1463,15 +1490,16 @@
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="12">
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="9">
@@ -1487,13 +1515,14 @@
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="12">
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>41</v>
@@ -1511,19 +1540,20 @@
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="8">
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D19" s="9">
-        <v>43804</v>
+        <v>43799</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8" t="s">
@@ -1535,19 +1565,20 @@
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="8">
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D20" s="9">
-        <v>43804</v>
+        <v>43799</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8" t="s">
@@ -1559,19 +1590,20 @@
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="8">
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D21" s="9">
-        <v>43804</v>
+        <v>43799</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
@@ -1583,13 +1615,14 @@
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="8">
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>49</v>
@@ -1607,13 +1640,14 @@
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="8">
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>49</v>
@@ -1631,13 +1665,14 @@
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="8">
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>49</v>
@@ -1655,13 +1690,14 @@
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="8">
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>49</v>
@@ -1679,19 +1715,20 @@
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="8">
+      <c r="K25" s="8"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" s="9">
-        <v>43814</v>
+        <v>43804</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8" t="s">
@@ -1703,19 +1740,20 @@
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="8">
+      <c r="K26" s="8"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" s="9">
-        <v>43814</v>
+        <v>43804</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8" t="s">
@@ -1727,19 +1765,20 @@
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="8">
+      <c r="K27" s="8"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D28" s="9">
-        <v>43814</v>
+        <v>43804</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
@@ -1751,13 +1790,14 @@
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="8">
+      <c r="K28" s="8"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>50</v>
@@ -1775,13 +1815,14 @@
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="8">
+      <c r="K29" s="8"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>50</v>
@@ -1799,13 +1840,14 @@
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="8">
+      <c r="K30" s="8"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>50</v>
@@ -1823,13 +1865,14 @@
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="8">
+      <c r="K31" s="8"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>50</v>
@@ -1847,9 +1890,95 @@
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="9">
+        <v>43814</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="9">
+        <v>43814</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="9">
+        <v>43814</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"MVP1,MVP2,MVP3,MVP4,MVP5"</formula1>
     </dataValidation>
@@ -1862,6 +1991,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
       <formula1>"Alex,Josini,Nisholine"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
+      <formula1>"Low,medium,high,cretical"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1869,20 +2001,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.453125" customWidth="1"/>
+    <col min="6" max="6" width="24.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.100000000000001" customHeight="1">
+    <row r="1" spans="1:10" ht="17.149999999999999" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1930,12 +2062,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
